--- a/data/trans_bre/IP16A98-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A98-Edad-trans_bre.xlsx
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-8,55</t>
+          <t>-5,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,87</t>
+          <t>-8,35</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-40,06%</t>
+          <t>-36,54%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-32,01%</t>
+          <t>-39,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,36%</t>
+          <t>19,42%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 4,99</t>
+          <t>-16,07; 5,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,56; 7,85</t>
+          <t>-22,23; 5,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 13,21</t>
+          <t>-10,17; 15,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-76,17; 47,83</t>
+          <t>-79,08; 77,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-67,29; 53,81</t>
+          <t>-75,95; 39,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-54,6; 91,07</t>
+          <t>-45,17; 151,32</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>-8,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,35</t>
+          <t>-8,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-36,54%</t>
+          <t>-40,06%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-39,0%</t>
+          <t>-32,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>-4,36%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 5,71</t>
+          <t>-22,36; 4,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,23; 5,16</t>
+          <t>-23,56; 7,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 15,02</t>
+          <t>-15,39; 13,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-79,08; 77,23</t>
+          <t>-76,17; 47,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-75,95; 39,18</t>
+          <t>-67,29; 53,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-45,17; 151,32</t>
+          <t>-54,6; 91,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A98-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A98-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,78</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>10,67</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>67,22%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>79,21%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 12,56</t>
+          <t>-8,45; 16,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 20,05</t>
+          <t>-14,97; 16,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 15,98</t>
+          <t>-7,12; 31,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-47,35; 170,81</t>
+          <t>-52,55; 320,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,57; 346,76</t>
+          <t>-69,14; 289,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-60,36; 164,34</t>
+          <t>-42,21; 496,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-5,28</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-8,35</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-36,54%</t>
+          <t>-22,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-39,0%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>-15,24%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 5,71</t>
+          <t>-12,07; 7,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-22,23; 5,16</t>
+          <t>-13,34; 14,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 15,02</t>
+          <t>-15,99; 9,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-79,08; 77,23</t>
+          <t>-72,61; 100,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,95; 39,18</t>
+          <t>-57,22; 130,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,17; 151,32</t>
+          <t>-64,42; 90,1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,55</t>
+          <t>-3,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,87</t>
+          <t>-10,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-40,06%</t>
+          <t>-18,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-32,01%</t>
+          <t>-39,29%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,36%</t>
+          <t>78,44%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 4,99</t>
+          <t>-21,11; 12,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-23,56; 7,85</t>
+          <t>-26,13; 5,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 13,21</t>
+          <t>-4,29; 25,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-76,17; 47,83</t>
+          <t>-70,71; 121,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-67,29; 53,81</t>
+          <t>-75,39; 40,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-54,6; 91,07</t>
+          <t>-25,68; 418,96</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>-14,87</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-6,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>-5,93</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-20,45%</t>
+          <t>-67,52%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-16,33%</t>
+          <t>-27,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>-24,79%</t>
         </is>
       </c>
     </row>
@@ -882,39 +882,127 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,31; 3,51</t>
+          <t>-31,06; -0,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 4,18</t>
+          <t>-25,63; 13,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 8,45</t>
+          <t>-24,34; 9,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-50,93; 31,75</t>
+          <t>-100,0; 28,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,56; 26,03</t>
+          <t>-75,78; 108,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,91; 59,17</t>
+          <t>-68,84; 75,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-3,11</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-3,32</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-20,45%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-16,33%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4,27%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-9,71; 3,01</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-11,41; 4,78</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-8,34; 8,87</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-51,76; 25,4</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-48,44; 30,44</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-36,08; 61,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_bre/IP16A98-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A98-Edad-trans_bre.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 16,59</t>
+          <t>-9,05; 16,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 16,64</t>
+          <t>-15,03; 16,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 31,84</t>
+          <t>-6,52; 31,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-52,55; 320,15</t>
+          <t>-55,6; 321,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-69,14; 289,94</t>
+          <t>-69,01; 348,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-42,21; 496,11</t>
+          <t>-45,16; 490,52</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 7,25</t>
+          <t>-11,46; 6,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,34; 14,73</t>
+          <t>-13,26; 13,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 9,82</t>
+          <t>-15,41; 11,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-72,61; 100,24</t>
+          <t>-68,95; 85,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,22; 130,28</t>
+          <t>-57,09; 120,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,42; 90,1</t>
+          <t>-63,68; 105,33</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,11; 12,56</t>
+          <t>-21,05; 13,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,13; 5,17</t>
+          <t>-27,34; 6,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 25,55</t>
+          <t>-4,92; 25,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-70,71; 121,6</t>
+          <t>-74,75; 143,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-75,39; 40,8</t>
+          <t>-78,25; 44,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,68; 418,96</t>
+          <t>-31,43; 439,21</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,06; -0,74</t>
+          <t>-31,81; -1,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 13,94</t>
+          <t>-28,9; 12,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 9,94</t>
+          <t>-25,04; 11,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 28,1</t>
+          <t>-93,19; 22,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-75,78; 108,98</t>
+          <t>-75,87; 113,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-68,84; 75,18</t>
+          <t>-71,59; 72,47</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,71; 3,01</t>
+          <t>-10,52; 3,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 4,78</t>
+          <t>-10,97; 4,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 8,87</t>
+          <t>-8,42; 9,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-51,76; 25,4</t>
+          <t>-53,25; 27,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,44; 30,44</t>
+          <t>-45,53; 31,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-36,08; 61,92</t>
+          <t>-35,9; 63,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A98-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP16A98-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -614,7 +614,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,67</t>
+          <t>11,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>79,21%</t>
+          <t>84,07%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 16,78</t>
+          <t>-9,07; 17,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 16,7</t>
+          <t>-14,01; 17,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 31,48</t>
+          <t>-6,29; 31,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-55,6; 321,48</t>
+          <t>-55,71; 325,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-69,01; 348,59</t>
+          <t>-65,06; 436,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,16; 490,52</t>
+          <t>-47,97; 477,69</t>
         </is>
       </c>
     </row>
@@ -694,7 +694,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,24%</t>
+          <t>-23,17%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 6,43</t>
+          <t>-12,29; 6,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 13,63</t>
+          <t>-13,61; 14,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 11,39</t>
+          <t>-18,94; 8,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-68,95; 85,22</t>
+          <t>-74,38; 99,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,09; 120,0</t>
+          <t>-55,46; 138,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,68; 105,33</t>
+          <t>-71,52; 72,79</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,35</t>
+          <t>10,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>78,44%</t>
+          <t>79,25%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 13,68</t>
+          <t>-22,27; 12,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-27,34; 6,09</t>
+          <t>-27,12; 6,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 25,84</t>
+          <t>-3,38; 25,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-74,75; 143,22</t>
+          <t>-76,12; 119,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-78,25; 44,54</t>
+          <t>-77,23; 44,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 439,21</t>
+          <t>-24,58; 363,22</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,93</t>
+          <t>-6,41</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-24,79%</t>
+          <t>-27,0%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,81; -1,0</t>
+          <t>-32,9; -0,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 12,7</t>
+          <t>-25,82; 14,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 11,39</t>
+          <t>-25,86; 15,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-93,19; 22,54</t>
+          <t>-100,0; 25,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-75,87; 113,8</t>
+          <t>-76,04; 121,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,59; 72,47</t>
+          <t>-81,9; 96,37</t>
         </is>
       </c>
     </row>
@@ -934,7 +934,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -949,7 +949,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>0,16%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 3,33</t>
+          <t>-9,31; 3,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 4,67</t>
+          <t>-12,21; 4,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 9,01</t>
+          <t>-11,67; 9,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-53,25; 27,3</t>
+          <t>-50,93; 31,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-45,53; 31,56</t>
+          <t>-49,56; 26,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-35,9; 63,14</t>
+          <t>-49,2; 64,24</t>
         </is>
       </c>
     </row>
